--- a/output.xlsx
+++ b/output.xlsx
@@ -14,156 +14,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="50">
-  <si>
-    <t>Revenues from continuing operations</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="85">
+  <si>
+    <t>Revenues</t>
+  </si>
+  <si>
+    <t>Cost of revenues</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>Depreciation and amortization of fixed and intangible assets</t>
+  </si>
+  <si>
+    <t>Investment income and others, net</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Provision for income tax</t>
   </si>
   <si>
     <t>Income from continuing operations</t>
   </si>
   <si>
+    <t>plus: Interest expense</t>
+  </si>
+  <si>
+    <t>plus: Provision for income tax</t>
+  </si>
+  <si>
+    <t>plus: Depreciation and amortization</t>
+  </si>
+  <si>
+    <t>plus: Nonrecurring ESOP charge</t>
+  </si>
+  <si>
     <t>Adjusted EBITDA from continuing operations</t>
   </si>
   <si>
-    <t>Adjusted net income from continuing operations</t>
-  </si>
-  <si>
-    <t>Diluted GAAP EPS from continuing operations</t>
-  </si>
-  <si>
-    <t>Diluted adjusted EPS from continuing operations</t>
+    <t>Income from continuing operations margin</t>
+  </si>
+  <si>
+    <t>Adjusted EBITDA from continuing operations margin</t>
   </si>
   <si>
     <t>Three Months Ended</t>
   </si>
   <si>
-    <t>December 31,</t>
-  </si>
-  <si>
-    <t>2016</t>
+    <t>December 31, 2016</t>
+  </si>
+  <si>
+    <t>DA</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>323.5</t>
+  </si>
+  <si>
+    <t>(128.1</t>
+  </si>
+  <si>
+    <t>(53.2</t>
+  </si>
+  <si>
+    <t>(43.3</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>153.3</t>
+  </si>
+  <si>
+    <t>47.4</t>
+  </si>
+  <si>
+    <t>December 31, 2015</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>182.6</t>
+  </si>
+  <si>
+    <t>(64.9</t>
+  </si>
+  <si>
+    <t>(24.0</t>
+  </si>
+  <si>
+    <t>(7.1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>10.7</t>
+  </si>
+  <si>
+    <t>104.5</t>
+  </si>
+  <si>
+    <t>57.2</t>
+  </si>
+  <si>
+    <t>(28.4</t>
+  </si>
+  <si>
+    <t>(52.7</t>
+  </si>
+  <si>
+    <t>107.5</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>52.7</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
     <t>506.1</t>
   </si>
   <si>
-    <t>107.5</t>
+    <t>(193.0</t>
+  </si>
+  <si>
+    <t>(77.2</t>
+  </si>
+  <si>
+    <t>(50.4</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>18.8</t>
   </si>
   <si>
     <t>257.8</t>
   </si>
   <si>
-    <t>135.4</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>Twelve Months Ended</t>
-  </si>
-  <si>
-    <t>Change</t>
+    <t>50.9</t>
+  </si>
+  <si>
+    <t>303.6</t>
+  </si>
+  <si>
+    <t>(110.4</t>
+  </si>
+  <si>
+    <t>(53.9</t>
+  </si>
+  <si>
+    <t>(48.1</t>
+  </si>
+  <si>
+    <t>(0.2</t>
+  </si>
+  <si>
+    <t>48.1</t>
+  </si>
+  <si>
+    <t>—</t>
+  </si>
+  <si>
+    <t>139.1</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>173.8</t>
+  </si>
+  <si>
+    <t>(21.6</t>
+  </si>
+  <si>
+    <t>(6.8</t>
+  </si>
+  <si>
+    <t>(32.5</t>
+  </si>
+  <si>
+    <t>(45.5</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>101.8</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>58.6</t>
   </si>
   <si>
     <t>477.4</t>
   </si>
   <si>
-    <t>108.0</t>
+    <t>(160.8</t>
+  </si>
+  <si>
+    <t>(75.5</t>
+  </si>
+  <si>
+    <t>(54.9</t>
+  </si>
+  <si>
+    <t>54.9</t>
   </si>
   <si>
     <t>240.9</t>
-  </si>
-  <si>
-    <t>128.3</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>(0.5</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>—</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>)%</t>
-  </si>
-  <si>
-    <t>1,995.2</t>
-  </si>
-  <si>
-    <t>451.5</t>
-  </si>
-  <si>
-    <t>1,004.7</t>
-  </si>
-  <si>
-    <t>531.5</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>1,760.7</t>
-  </si>
-  <si>
-    <t>487.5</t>
-  </si>
-  <si>
-    <t>913.9</t>
-  </si>
-  <si>
-    <t>482.8</t>
-  </si>
-  <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>2.87</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>(7.4</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>(8.7</t>
-  </si>
-  <si>
-    <t>8.4</t>
   </si>
 </sst>
 </file>
@@ -495,289 +600,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:24">
       <c r="B1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>67</v>
       </c>
       <c r="V4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>18</v>
+      </c>
+      <c r="W4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M5" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>52</v>
+      </c>
+      <c r="T5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" t="s">
-        <v>40</v>
-      </c>
-      <c r="U6" t="s">
-        <v>46</v>
-      </c>
-      <c r="V6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" t="s">
-        <v>47</v>
-      </c>
-      <c r="V7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" t="s">
+        <v>69</v>
+      </c>
+      <c r="T7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W7" t="s">
+        <v>82</v>
+      </c>
+      <c r="X7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
-      <c r="U8" t="s">
-        <v>48</v>
-      </c>
-      <c r="V8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>62</v>
+      </c>
+      <c r="P8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>71</v>
+      </c>
+      <c r="T10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>24</v>
+      </c>
+      <c r="S11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R9" t="s">
-        <v>43</v>
-      </c>
-      <c r="U9" t="s">
-        <v>49</v>
-      </c>
-      <c r="V9" t="s">
-        <v>30</v>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>24</v>
+      </c>
+      <c r="S13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>63</v>
+      </c>
+      <c r="S14" t="s">
+        <v>75</v>
+      </c>
+      <c r="W14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="S15" t="s">
+        <v>64</v>
+      </c>
+      <c r="W15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
+        <v>65</v>
+      </c>
+      <c r="R16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" t="s">
+        <v>76</v>
+      </c>
+      <c r="V16" t="s">
+        <v>18</v>
+      </c>
+      <c r="W16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>78</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X19" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
